--- a/maturity.xlsx
+++ b/maturity.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unicorvinus-my.sharepoint.com/personal/andras_salamon_stud_uni-corvinus_hu/Documents/Dokumentumok/asuli/9 félév/bizonytalansag/ppa/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_314D77985B20D831289241304B5ED87656CDF300" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34ACDFFA-3C51-4357-AB9B-7C1022928FC3}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -55,11 +49,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,9 +65,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -115,24 +111,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -420,17 +408,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="5" width="17.81640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -564,7 +549,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -698,7 +683,7 @@
         <v>45111</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -736,7 +721,7 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:44">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -870,7 +855,7 @@
         <v>45259</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:44">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -1004,7 +989,7 @@
         <v>45189</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1138,7 +1123,7 @@
         <v>45254</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1272,7 +1257,7 @@
         <v>45217</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1406,7 +1391,7 @@
         <v>45287</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:44">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1540,7 +1525,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:44">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1642,6 +1627,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>